--- a/data/APR_dictionary.xlsx
+++ b/data/APR_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kheatwole\Documents\HMIS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kheatwole\Documents\HMIS\VA-513\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="186">
   <si>
     <t>question</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>households_served</t>
-  </si>
-  <si>
-    <t>identifiers</t>
   </si>
   <si>
     <t>chronically_homeless</t>
@@ -1387,23 +1384,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="102.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,10 +1407,10 @@
         <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>151</v>
@@ -1423,13 +1419,10 @@
         <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1448,11 +1441,11 @@
       <c r="F2" t="s">
         <v>127</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1471,11 +1464,11 @@
       <c r="F3" t="s">
         <v>128</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1494,11 +1487,11 @@
       <c r="F4" t="s">
         <v>132</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1515,13 +1508,13 @@
         <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1538,13 +1531,13 @@
         <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1561,13 +1554,13 @@
         <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1584,16 +1577,13 @@
         <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" t="s">
         <v>129</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1610,16 +1600,13 @@
         <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" t="s">
         <v>129</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1636,16 +1623,13 @@
         <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" t="s">
         <v>130</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1662,16 +1646,13 @@
         <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" t="s">
         <v>130</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1688,16 +1669,13 @@
         <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" t="s">
         <v>131</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1714,16 +1692,13 @@
         <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" t="s">
         <v>131</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1740,13 +1715,13 @@
         <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1763,13 +1738,13 @@
         <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1786,13 +1761,13 @@
         <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1811,11 +1786,11 @@
       <c r="F17" t="s">
         <v>127</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1834,11 +1809,11 @@
       <c r="F18" t="s">
         <v>127</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1852,13 +1827,13 @@
         <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1869,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1886,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1903,16 +1878,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1929,13 +1904,13 @@
         <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1952,13 +1927,13 @@
         <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1975,13 +1950,13 @@
         <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1995,13 +1970,13 @@
         <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2018,13 +1993,13 @@
         <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2016,13 @@
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2064,13 +2039,13 @@
         <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2087,13 +2062,13 @@
         <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2110,13 +2085,13 @@
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2133,13 +2108,13 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2158,11 +2133,11 @@
       <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2181,11 +2156,11 @@
       <c r="F34" t="s">
         <v>133</v>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2204,11 +2179,11 @@
       <c r="F35" t="s">
         <v>133</v>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2224,11 +2199,11 @@
       <c r="F36" t="s">
         <v>133</v>
       </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2247,11 +2222,11 @@
       <c r="F37" t="s">
         <v>133</v>
       </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2270,11 +2245,11 @@
       <c r="F38" t="s">
         <v>133</v>
       </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2293,11 +2268,11 @@
       <c r="F39" t="s">
         <v>133</v>
       </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2314,13 +2289,13 @@
         <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2337,13 +2312,13 @@
         <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2360,13 +2335,13 @@
         <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2383,13 +2358,13 @@
         <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2406,13 +2381,13 @@
         <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2426,13 +2401,13 @@
         <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2449,13 +2424,13 @@
         <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2472,13 +2447,13 @@
         <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2497,11 +2472,11 @@
       <c r="F48" t="s">
         <v>134</v>
       </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2515,13 +2490,13 @@
         <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2540,11 +2515,11 @@
       <c r="F50" t="s">
         <v>134</v>
       </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2563,11 +2538,11 @@
       <c r="F51" t="s">
         <v>134</v>
       </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2586,11 +2561,11 @@
       <c r="F52" t="s">
         <v>134</v>
       </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2609,11 +2584,11 @@
       <c r="F53" t="s">
         <v>134</v>
       </c>
-      <c r="H53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2632,11 +2607,11 @@
       <c r="F54" t="s">
         <v>134</v>
       </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2652,11 +2627,11 @@
       <c r="F55" t="s">
         <v>134</v>
       </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2667,27 +2642,27 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
         <v>134</v>
       </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
         <v>184</v>
       </c>
-      <c r="B57" t="s">
-        <v>185</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2701,13 +2676,13 @@
         <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2720,11 +2695,11 @@
       <c r="F59" t="s">
         <v>139</v>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2737,11 +2712,11 @@
       <c r="F60" t="s">
         <v>139</v>
       </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2754,11 +2729,11 @@
       <c r="F61" t="s">
         <v>139</v>
       </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2771,11 +2746,11 @@
       <c r="F62" t="s">
         <v>139</v>
       </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2788,11 +2763,11 @@
       <c r="F63" t="s">
         <v>139</v>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2805,11 +2780,11 @@
       <c r="F64" t="s">
         <v>139</v>
       </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2826,13 +2801,13 @@
         <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2843,19 +2818,19 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" t="s">
         <v>96</v>
       </c>
       <c r="F66" t="s">
-        <v>178</v>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2872,13 +2847,13 @@
         <v>96</v>
       </c>
       <c r="F67" t="s">
-        <v>179</v>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2889,19 +2864,19 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
         <v>96</v>
       </c>
       <c r="F68" t="s">
-        <v>179</v>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2914,11 +2889,11 @@
       <c r="F69" t="s">
         <v>149</v>
       </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2931,7 +2906,7 @@
       <c r="F70" t="s">
         <v>149</v>
       </c>
-      <c r="H70" t="b">
+      <c r="G70" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/APR_dictionary.xlsx
+++ b/data/APR_dictionary.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="APR_dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">APR_dictionary!$A$1:$G$70</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1386,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2911,6 +2914,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G70"/>
   <sortState ref="A2:H70">
     <sortCondition ref="A2:A70"/>
   </sortState>
